--- a/Rate_Control_Assignment/Throughput.xlsx
+++ b/Rate_Control_Assignment/Throughput.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osimo\Documents\Courses\Wirless_networking\sdrProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CAE0B-D70E-4D22-8B50-9F1088062F65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368C2691-3B4D-43A8-99BB-5C02453B5F43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" activeTab="1" xr2:uid="{C1A6B83C-2F4C-4525-9D38-CFEBFDFAC31F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="5" r:id="rId1"/>
+    <sheet name="Throughput over 100pkts" sheetId="5" r:id="rId1"/>
     <sheet name="100pkt" sheetId="2" r:id="rId2"/>
-    <sheet name="Chart2" sheetId="6" r:id="rId3"/>
+    <sheet name="Throughput over 200pkts" sheetId="6" r:id="rId3"/>
     <sheet name="200pkt" sheetId="3" r:id="rId4"/>
     <sheet name="500pkt" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -6776,7 +6776,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6919,16 +6919,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7255,7 +7255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DBEFA7-5B6B-459A-9357-777A86DBD05D}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -10104,23 +10104,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A3:A29"/>
     <mergeCell ref="B3:B11"/>
@@ -10137,6 +10120,23 @@
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C42:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10147,12 +10147,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53531544-A3E3-4CA2-8850-1ADA7B494C60}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.90625" customWidth="1"/>
@@ -11316,6 +11318,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C42:C44"/>
@@ -11329,21 +11346,6 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="A3:A29"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11353,12 +11355,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FFB0E5-9432-4C51-A3E0-7BF8626A80B9}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G3" activeCellId="1" sqref="E3:E56 G3:G56"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.90625" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -12522,6 +12526,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A29"/>
@@ -12537,19 +12554,6 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Rate_Control_Assignment/Throughput.xlsx
+++ b/Rate_Control_Assignment/Throughput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osimo\Documents\Courses\Wirless_networking\WNGP02\Rate_Control_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78812AB3-1E09-4C40-BC9B-21D55A36AC2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4B9C1-B973-43D3-B45B-C30A03170214}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" activeTab="2" xr2:uid="{C1A6B83C-2F4C-4525-9D38-CFEBFDFAC31F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" xr2:uid="{C1A6B83C-2F4C-4525-9D38-CFEBFDFAC31F}"/>
   </bookViews>
   <sheets>
     <sheet name="100pkt" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="17">
   <si>
     <t>BW 20MHz</t>
   </si>
@@ -68,15 +68,6 @@
     <t>Matlab example</t>
   </si>
   <si>
-    <t>Old no EMA</t>
-  </si>
-  <si>
-    <t>Original with Jump 10</t>
-  </si>
-  <si>
-    <t>New Function Jump 10 NO EMA</t>
-  </si>
-  <si>
     <t>New Function Jump 10 EMA</t>
   </si>
   <si>
@@ -84,6 +75,9 @@
   </si>
   <si>
     <t>Orignal Example</t>
+  </si>
+  <si>
+    <t>Matlab example with Jump 10</t>
   </si>
 </sst>
 </file>
@@ -441,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DBEFA7-5B6B-459A-9357-777A86DBD05D}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,7 +449,8 @@
     <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" customWidth="1"/>
     <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.36328125" customWidth="1"/>
     <col min="15" max="15" width="10.6328125" bestFit="1" customWidth="1"/>
@@ -464,7 +459,7 @@
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
@@ -478,23 +473,15 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>8</v>
       </c>
@@ -525,20 +512,8 @@
       <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,31 +545,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.3455582722086294</v>
+        <v>7.8952842029765096</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M3">
-        <v>6.3916159358865698</v>
+        <v>5.5379770665753902</v>
       </c>
       <c r="N3">
-        <v>0.19</v>
-      </c>
-      <c r="O3">
-        <v>7.8952842029765096</v>
-      </c>
-      <c r="P3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q3">
-        <v>5.5379770665753902</v>
-      </c>
-      <c r="R3">
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -620,31 +583,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.3966506079375893</v>
+        <v>4.0611898016997197</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="M4">
-        <v>6.9125498619208301</v>
+        <v>8.2182200353508801</v>
       </c>
       <c r="N4">
-        <v>0.23</v>
-      </c>
-      <c r="O4">
-        <v>4.0611898016997197</v>
-      </c>
-      <c r="P4">
-        <v>0.44</v>
-      </c>
-      <c r="Q4">
-        <v>8.2182200353508801</v>
-      </c>
-      <c r="R4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -670,31 +621,19 @@
         <v>0.05</v>
       </c>
       <c r="K5">
-        <v>9.4749016886421398</v>
+        <v>4.4621976904640901</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M5">
-        <v>6.9532024224628399</v>
+        <v>7.1263854283013996</v>
       </c>
       <c r="N5">
-        <v>0.26</v>
-      </c>
-      <c r="O5">
-        <v>4.4621976904640901</v>
-      </c>
-      <c r="P5">
-        <v>0.4</v>
-      </c>
-      <c r="Q5">
-        <v>7.1263854283013996</v>
-      </c>
-      <c r="R5">
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -722,31 +661,19 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>11.650595898398601</v>
+        <v>4.3087804113789501</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="M6">
-        <v>7.5229582466021796</v>
+        <v>16.185724870338301</v>
       </c>
       <c r="N6">
-        <v>0.25</v>
-      </c>
-      <c r="O6">
-        <v>4.3087804113789501</v>
-      </c>
-      <c r="P6">
-        <v>0.53</v>
-      </c>
-      <c r="Q6">
-        <v>16.185724870338301</v>
-      </c>
-      <c r="R6">
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -772,31 +699,19 @@
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>13.4097233589785</v>
+        <v>11.1361806105241</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="M7">
-        <v>13.4095702158438</v>
+        <v>10.191528098070201</v>
       </c>
       <c r="N7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O7">
-        <v>11.1361806105241</v>
-      </c>
-      <c r="P7">
-        <v>0.21</v>
-      </c>
-      <c r="Q7">
-        <v>10.191528098070201</v>
-      </c>
-      <c r="R7">
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -822,31 +737,19 @@
         <v>0.05</v>
       </c>
       <c r="K8">
-        <v>12.7804299666136</v>
+        <v>11.9189703413542</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M8">
-        <v>12.9417945106399</v>
+        <v>8.1360507197082992</v>
       </c>
       <c r="N8">
-        <v>0.17</v>
-      </c>
-      <c r="O8">
-        <v>11.9189703413542</v>
-      </c>
-      <c r="P8">
-        <v>0.22</v>
-      </c>
-      <c r="Q8">
-        <v>8.1360507197082992</v>
-      </c>
-      <c r="R8">
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
@@ -874,31 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.716350258456099</v>
+        <v>10.890513721394001</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M9">
-        <v>4.96354303613687</v>
+        <v>7.8420217712379001</v>
       </c>
       <c r="N9">
-        <v>0.47</v>
-      </c>
-      <c r="O9">
-        <v>10.890513721394001</v>
-      </c>
-      <c r="P9">
         <v>0.3</v>
       </c>
-      <c r="Q9">
-        <v>7.8420217712379001</v>
-      </c>
-      <c r="R9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -924,31 +815,19 @@
         <v>0.03</v>
       </c>
       <c r="K10">
-        <v>16.298271094045301</v>
+        <v>8.9199516817802902</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="M10">
-        <v>9.5857381308829304</v>
+        <v>17.422726352035699</v>
       </c>
       <c r="N10">
-        <v>0.32</v>
-      </c>
-      <c r="O10">
-        <v>8.9199516817802902</v>
-      </c>
-      <c r="P10">
-        <v>0.36</v>
-      </c>
-      <c r="Q10">
-        <v>17.422726352035699</v>
-      </c>
-      <c r="R10">
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -974,31 +853,19 @@
         <v>0.16</v>
       </c>
       <c r="K11">
-        <v>16.447817532024299</v>
+        <v>7.1217892989804801</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="M11">
-        <v>8.5828036599846396</v>
+        <v>10.0746085102894</v>
       </c>
       <c r="N11">
-        <v>0.4</v>
-      </c>
-      <c r="O11">
-        <v>7.1217892989804801</v>
-      </c>
-      <c r="P11">
-        <v>0.45</v>
-      </c>
-      <c r="Q11">
-        <v>10.0746085102894</v>
-      </c>
-      <c r="R11">
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -1028,31 +895,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.3455582722086294</v>
+        <v>7.8952842029765096</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M12">
-        <v>6.3916159358865698</v>
+        <v>5.5379770665753902</v>
       </c>
       <c r="N12">
-        <v>0.19</v>
-      </c>
-      <c r="O12">
-        <v>7.8952842029765096</v>
-      </c>
-      <c r="P12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q12">
-        <v>5.5379770665753902</v>
-      </c>
-      <c r="R12">
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1078,31 +933,19 @@
         <v>0.05</v>
       </c>
       <c r="K13">
-        <v>9.0112000000000005</v>
+        <v>7.6081728419200401</v>
       </c>
       <c r="L13">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="M13">
-        <v>4.42046190373408</v>
+        <v>5.4877619580866996</v>
       </c>
       <c r="N13">
-        <v>0.4</v>
-      </c>
-      <c r="O13">
-        <v>7.6081728419200401</v>
-      </c>
-      <c r="P13">
-        <v>0.24</v>
-      </c>
-      <c r="Q13">
-        <v>5.4877619580866996</v>
-      </c>
-      <c r="R13">
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1128,31 +971,19 @@
         <v>0.05</v>
       </c>
       <c r="K14">
-        <v>9.4749016886421398</v>
+        <v>4.4621976904640901</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M14">
-        <v>6.9532024224628399</v>
+        <v>7.1263854283013996</v>
       </c>
       <c r="N14">
-        <v>0.26</v>
-      </c>
-      <c r="O14">
-        <v>4.4621976904640901</v>
-      </c>
-      <c r="P14">
-        <v>0.4</v>
-      </c>
-      <c r="Q14">
-        <v>7.1263854283013996</v>
-      </c>
-      <c r="R14">
         <v>0.19</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -1180,31 +1011,19 @@
         <v>0.01</v>
       </c>
       <c r="K15">
-        <v>11.650595898398601</v>
+        <v>4.3087804113789501</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="M15">
-        <v>7.5229582466021796</v>
+        <v>16.185724870338301</v>
       </c>
       <c r="N15">
-        <v>0.25</v>
-      </c>
-      <c r="O15">
-        <v>4.3087804113789501</v>
-      </c>
-      <c r="P15">
-        <v>0.53</v>
-      </c>
-      <c r="Q15">
-        <v>16.185724870338301</v>
-      </c>
-      <c r="R15">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1230,31 +1049,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K16">
-        <v>12.3426603529918</v>
+        <v>14.0933797909407</v>
       </c>
       <c r="L16">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="M16">
-        <v>11.252335079301099</v>
+        <v>6.4455457171712398</v>
       </c>
       <c r="N16">
-        <v>0.25</v>
-      </c>
-      <c r="O16">
-        <v>14.0933797909407</v>
-      </c>
-      <c r="P16">
-        <v>0.21</v>
-      </c>
-      <c r="Q16">
-        <v>6.4455457171712398</v>
-      </c>
-      <c r="R16">
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1280,31 +1087,19 @@
         <v>0.05</v>
       </c>
       <c r="K17">
-        <v>12.7804299666136</v>
+        <v>11.9189703413542</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M17">
-        <v>12.9417945106399</v>
+        <v>8.1360507197082992</v>
       </c>
       <c r="N17">
-        <v>0.17</v>
-      </c>
-      <c r="O17">
-        <v>11.9189703413542</v>
-      </c>
-      <c r="P17">
-        <v>0.22</v>
-      </c>
-      <c r="Q17">
-        <v>8.1360507197082992</v>
-      </c>
-      <c r="R17">
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
@@ -1332,31 +1127,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.716350258456099</v>
+        <v>10.890513721394001</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M18">
-        <v>4.96354303613687</v>
+        <v>7.8420217712379001</v>
       </c>
       <c r="N18">
-        <v>0.47</v>
-      </c>
-      <c r="O18">
-        <v>10.890513721394001</v>
-      </c>
-      <c r="P18">
         <v>0.3</v>
       </c>
-      <c r="Q18">
-        <v>7.8420217712379001</v>
-      </c>
-      <c r="R18">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1382,31 +1165,19 @@
         <v>0.06</v>
       </c>
       <c r="K19">
-        <v>14.9461501603332</v>
+        <v>5.8334282784550497</v>
       </c>
       <c r="L19">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>6.9696411099924802</v>
+        <v>5.5361195091588096</v>
       </c>
       <c r="N19">
-        <v>0.4</v>
-      </c>
-      <c r="O19">
-        <v>5.8334282784550497</v>
-      </c>
-      <c r="P19">
-        <v>0.5</v>
-      </c>
-      <c r="Q19">
-        <v>5.5361195091588096</v>
-      </c>
-      <c r="R19">
         <v>0.43</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1432,31 +1203,19 @@
         <v>0.16</v>
       </c>
       <c r="K20">
-        <v>16.447817532024299</v>
+        <v>7.1217892989804801</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="M20">
-        <v>8.5828036599846396</v>
+        <v>10.0746085102894</v>
       </c>
       <c r="N20">
-        <v>0.4</v>
-      </c>
-      <c r="O20">
-        <v>7.1217892989804801</v>
-      </c>
-      <c r="P20">
-        <v>0.45</v>
-      </c>
-      <c r="Q20">
-        <v>10.0746085102894</v>
-      </c>
-      <c r="R20">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>6</v>
@@ -1486,31 +1245,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.3455582722086294</v>
+        <v>7.8952842029765096</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M21">
-        <v>6.3916159358865698</v>
+        <v>5.5379770665753902</v>
       </c>
       <c r="N21">
-        <v>0.19</v>
-      </c>
-      <c r="O21">
-        <v>7.8952842029765096</v>
-      </c>
-      <c r="P21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q21">
-        <v>5.5379770665753902</v>
-      </c>
-      <c r="R21">
         <v>0.21</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1536,31 +1283,19 @@
         <v>0.05</v>
       </c>
       <c r="K22">
-        <v>9.0112000000000005</v>
+        <v>7.6081728419200401</v>
       </c>
       <c r="L22">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="M22">
-        <v>4.42046190373408</v>
+        <v>5.4877619580866996</v>
       </c>
       <c r="N22">
-        <v>0.4</v>
-      </c>
-      <c r="O22">
-        <v>7.6081728419200401</v>
-      </c>
-      <c r="P22">
-        <v>0.24</v>
-      </c>
-      <c r="Q22">
-        <v>5.4877619580866996</v>
-      </c>
-      <c r="R22">
         <v>0.33</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1586,31 +1321,19 @@
         <v>0.05</v>
       </c>
       <c r="K23">
-        <v>8.9641878150145793</v>
+        <v>6.86097152428811</v>
       </c>
       <c r="L23">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="M23">
-        <v>4.8128999602299398</v>
+        <v>8.1683399807454204</v>
       </c>
       <c r="N23">
-        <v>0.35</v>
-      </c>
-      <c r="O23">
-        <v>6.86097152428811</v>
-      </c>
-      <c r="P23">
-        <v>0.24</v>
-      </c>
-      <c r="Q23">
-        <v>8.1683399807454204</v>
-      </c>
-      <c r="R23">
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -1638,31 +1361,19 @@
         <v>0.01</v>
       </c>
       <c r="K24">
-        <v>11.650595898398601</v>
+        <v>4.3087804113789501</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="M24">
-        <v>7.5229582466021796</v>
+        <v>16.185724870338301</v>
       </c>
       <c r="N24">
-        <v>0.25</v>
-      </c>
-      <c r="O24">
-        <v>4.3087804113789501</v>
-      </c>
-      <c r="P24">
-        <v>0.53</v>
-      </c>
-      <c r="Q24">
-        <v>16.185724870338301</v>
-      </c>
-      <c r="R24">
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1688,31 +1399,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K25">
-        <v>12.3426603529918</v>
+        <v>14.0933797909407</v>
       </c>
       <c r="L25">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="M25">
-        <v>11.252335079301099</v>
+        <v>6.4455457171712398</v>
       </c>
       <c r="N25">
-        <v>0.25</v>
-      </c>
-      <c r="O25">
-        <v>14.0933797909407</v>
-      </c>
-      <c r="P25">
-        <v>0.21</v>
-      </c>
-      <c r="Q25">
-        <v>6.4455457171712398</v>
-      </c>
-      <c r="R25">
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1738,31 +1437,19 @@
         <v>0.09</v>
       </c>
       <c r="K26">
-        <v>13.243109079033299</v>
+        <v>12.0483712822748</v>
       </c>
       <c r="L26">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="M26">
-        <v>11.6420964869064</v>
+        <v>9.6120331363623404</v>
       </c>
       <c r="N26">
-        <v>0.25</v>
-      </c>
-      <c r="O26">
-        <v>12.0483712822748</v>
-      </c>
-      <c r="P26">
-        <v>0.19</v>
-      </c>
-      <c r="Q26">
-        <v>9.6120331363623404</v>
-      </c>
-      <c r="R26">
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
@@ -1790,31 +1477,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>12.716350258456099</v>
+        <v>10.890513721394001</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M27">
-        <v>4.96354303613687</v>
+        <v>7.8420217712379001</v>
       </c>
       <c r="N27">
-        <v>0.47</v>
-      </c>
-      <c r="O27">
-        <v>10.890513721394001</v>
-      </c>
-      <c r="P27">
         <v>0.3</v>
       </c>
-      <c r="Q27">
-        <v>7.8420217712379001</v>
-      </c>
-      <c r="R27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1840,31 +1515,19 @@
         <v>0.06</v>
       </c>
       <c r="K28">
-        <v>14.9461501603332</v>
+        <v>5.8334282784550497</v>
       </c>
       <c r="L28">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="M28">
-        <v>6.9696411099924802</v>
+        <v>5.5361195091588096</v>
       </c>
       <c r="N28">
-        <v>0.4</v>
-      </c>
-      <c r="O28">
-        <v>5.8334282784550497</v>
-      </c>
-      <c r="P28">
-        <v>0.5</v>
-      </c>
-      <c r="Q28">
-        <v>5.5361195091588096</v>
-      </c>
-      <c r="R28">
         <v>0.43</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1890,31 +1553,19 @@
         <v>0.1</v>
       </c>
       <c r="K29">
-        <v>15.8256955647169</v>
+        <v>12.476101218369299</v>
       </c>
       <c r="L29">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="M29">
-        <v>13.0582658668569</v>
+        <v>5.73612083625087</v>
       </c>
       <c r="N29">
-        <v>0.24</v>
-      </c>
-      <c r="O29">
-        <v>12.476101218369299</v>
-      </c>
-      <c r="P29">
-        <v>0.35</v>
-      </c>
-      <c r="Q29">
-        <v>5.73612083625087</v>
-      </c>
-      <c r="R29">
         <v>0.51</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1946,31 +1597,19 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>10.8532061473238</v>
+        <v>7.2447948251465499</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M30">
-        <v>8.1220883534136501</v>
+        <v>6.5317761831058601</v>
       </c>
       <c r="N30">
-        <v>0.21</v>
-      </c>
-      <c r="O30">
-        <v>7.2447948251465499</v>
-      </c>
-      <c r="P30">
-        <v>0.3</v>
-      </c>
-      <c r="Q30">
-        <v>6.5317761831058601</v>
-      </c>
-      <c r="R30">
         <v>0.32</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1996,31 +1635,19 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>11.6370248309563</v>
+        <v>5.98886000742666</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="M31">
-        <v>10.409594517418601</v>
+        <v>9.4205342926225093</v>
       </c>
       <c r="N31">
-        <v>0.11</v>
-      </c>
-      <c r="O31">
-        <v>5.98886000742666</v>
-      </c>
-      <c r="P31">
-        <v>0.37</v>
-      </c>
-      <c r="Q31">
-        <v>9.4205342926225093</v>
-      </c>
-      <c r="R31">
         <v>0.22</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2046,31 +1673,19 @@
         <v>0.02</v>
       </c>
       <c r="K32">
-        <v>11.816975362068</v>
+        <v>6.3408688814625496</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="M32">
-        <v>8.8006962576153303</v>
+        <v>9.1407909604519695</v>
       </c>
       <c r="N32">
         <v>0.21</v>
       </c>
-      <c r="O32">
-        <v>6.3408688814625496</v>
-      </c>
-      <c r="P32">
-        <v>0.37</v>
-      </c>
-      <c r="Q32">
-        <v>9.1407909604519695</v>
-      </c>
-      <c r="R32">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
@@ -2098,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>17.096585691626998</v>
+        <v>16.932128436839101</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M33">
         <v>18.747782969390698</v>
@@ -2109,20 +1724,8 @@
       <c r="N33">
         <v>0.04</v>
       </c>
-      <c r="O33">
-        <v>16.932128436839101</v>
-      </c>
-      <c r="P33">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q33">
-        <v>18.747782969390698</v>
-      </c>
-      <c r="R33">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2148,31 +1751,19 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>19.169747741844901</v>
+        <v>18.074907606597201</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M34">
-        <v>11.540737262268101</v>
+        <v>10.5843875347115</v>
       </c>
       <c r="N34">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O34">
-        <v>18.074907606597201</v>
-      </c>
-      <c r="P34">
-        <v>0.2</v>
-      </c>
-      <c r="Q34">
-        <v>10.5843875347115</v>
-      </c>
-      <c r="R34">
         <v>0.33</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2198,31 +1789,19 @@
         <v>0.02</v>
       </c>
       <c r="K35">
-        <v>19.301635172706298</v>
+        <v>11.918170016563</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="M35">
-        <v>11.7010252797996</v>
+        <v>10.8117766497462</v>
       </c>
       <c r="N35">
-        <v>0.27</v>
-      </c>
-      <c r="O35">
-        <v>11.918170016563</v>
-      </c>
-      <c r="P35">
         <v>0.35</v>
       </c>
-      <c r="Q35">
-        <v>10.8117766497462</v>
-      </c>
-      <c r="R35">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2">
@@ -2250,31 +1829,19 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>22.5901865929509</v>
+        <v>12.251874062968501</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="M36">
-        <v>12.5058907383338</v>
+        <v>15.9690739167375</v>
       </c>
       <c r="N36">
-        <v>0.27</v>
-      </c>
-      <c r="O36">
-        <v>12.251874062968501</v>
-      </c>
-      <c r="P36">
-        <v>0.39</v>
-      </c>
-      <c r="Q36">
-        <v>15.9690739167375</v>
-      </c>
-      <c r="R36">
         <v>0.31</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2300,31 +1867,19 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>24.690313614115698</v>
+        <v>23.5467140319716</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="M37">
-        <v>17.368503799458502</v>
+        <v>22.1381229821502</v>
       </c>
       <c r="N37">
         <v>0.27</v>
       </c>
-      <c r="O37">
-        <v>23.5467140319716</v>
-      </c>
-      <c r="P37">
-        <v>0.27</v>
-      </c>
-      <c r="Q37">
-        <v>22.1381229821502</v>
-      </c>
-      <c r="R37">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2350,31 +1905,19 @@
         <v>0.08</v>
       </c>
       <c r="K38">
-        <v>24.860718206053001</v>
+        <v>14.5646447559207</v>
       </c>
       <c r="L38">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
       <c r="M38">
-        <v>18.592446534202999</v>
+        <v>20.5409464701319</v>
       </c>
       <c r="N38">
-        <v>0.25</v>
-      </c>
-      <c r="O38">
-        <v>14.5646447559207</v>
-      </c>
-      <c r="P38">
-        <v>0.41</v>
-      </c>
-      <c r="Q38">
-        <v>20.5409464701319</v>
-      </c>
-      <c r="R38">
         <v>0.19</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -2404,31 +1947,19 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>10.8532061473238</v>
+        <v>7.2447948251465499</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M39">
-        <v>8.1220883534136501</v>
+        <v>6.5317761831058601</v>
       </c>
       <c r="N39">
-        <v>0.21</v>
-      </c>
-      <c r="O39">
-        <v>7.2447948251465499</v>
-      </c>
-      <c r="P39">
-        <v>0.3</v>
-      </c>
-      <c r="Q39">
-        <v>6.5317761831058601</v>
-      </c>
-      <c r="R39">
         <v>0.32</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2454,31 +1985,19 @@
         <v>0.06</v>
       </c>
       <c r="K40">
-        <v>11.1721401807362</v>
+        <v>5.3457358454748203</v>
       </c>
       <c r="L40">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
       <c r="M40">
-        <v>10.559902942068501</v>
+        <v>5.6099342585829097</v>
       </c>
       <c r="N40">
-        <v>0.15</v>
-      </c>
-      <c r="O40">
-        <v>5.3457358454748203</v>
-      </c>
-      <c r="P40">
-        <v>0.45</v>
-      </c>
-      <c r="Q40">
-        <v>5.6099342585829097</v>
-      </c>
-      <c r="R40">
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2504,31 +2023,19 @@
         <v>0.02</v>
       </c>
       <c r="K41">
-        <v>11.816975362068</v>
+        <v>6.3408688814625496</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="M41">
-        <v>8.8006962576153303</v>
+        <v>9.1407909604519695</v>
       </c>
       <c r="N41">
         <v>0.21</v>
       </c>
-      <c r="O41">
-        <v>6.3408688814625496</v>
-      </c>
-      <c r="P41">
-        <v>0.37</v>
-      </c>
-      <c r="Q41">
-        <v>9.1407909604519695</v>
-      </c>
-      <c r="R41">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2">
@@ -2556,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>17.096585691626998</v>
+        <v>16.932128436839101</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M42">
         <v>18.747782969390698</v>
@@ -2567,20 +2074,8 @@
       <c r="N42">
         <v>0.04</v>
       </c>
-      <c r="O42">
-        <v>16.932128436839101</v>
-      </c>
-      <c r="P42">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q42">
-        <v>18.747782969390698</v>
-      </c>
-      <c r="R42">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2606,31 +2101,19 @@
         <v>0.03</v>
       </c>
       <c r="K43">
-        <v>17.3463769957227</v>
+        <v>9.8928813559322109</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="M43">
-        <v>15.883072334078999</v>
+        <v>11.4541387024609</v>
       </c>
       <c r="N43">
-        <v>0.22</v>
-      </c>
-      <c r="O43">
-        <v>9.8928813559322109</v>
-      </c>
-      <c r="P43">
-        <v>0.43</v>
-      </c>
-      <c r="Q43">
-        <v>11.4541387024609</v>
-      </c>
-      <c r="R43">
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2656,31 +2139,19 @@
         <v>0.02</v>
       </c>
       <c r="K44">
-        <v>19.301635172706298</v>
+        <v>11.918170016563</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="M44">
-        <v>11.7010252797996</v>
+        <v>10.8117766497462</v>
       </c>
       <c r="N44">
-        <v>0.27</v>
-      </c>
-      <c r="O44">
-        <v>11.918170016563</v>
-      </c>
-      <c r="P44">
         <v>0.35</v>
       </c>
-      <c r="Q44">
-        <v>10.8117766497462</v>
-      </c>
-      <c r="R44">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2">
@@ -2708,31 +2179,19 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>21.662788237782902</v>
+        <v>21.8105782655281</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M45">
-        <v>17.433203595329399</v>
+        <v>14.4451410658307</v>
       </c>
       <c r="N45">
-        <v>0.24</v>
-      </c>
-      <c r="O45">
-        <v>21.8105782655281</v>
-      </c>
-      <c r="P45">
-        <v>0.18</v>
-      </c>
-      <c r="Q45">
-        <v>14.4451410658307</v>
-      </c>
-      <c r="R45">
         <v>0.37</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2758,31 +2217,19 @@
         <v>0.08</v>
       </c>
       <c r="K46">
-        <v>24.0086750095249</v>
+        <v>14.511178507206299</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="M46">
-        <v>24.261809566118799</v>
+        <v>15.0472983315475</v>
       </c>
       <c r="N46">
-        <v>0.2</v>
-      </c>
-      <c r="O46">
-        <v>14.511178507206299</v>
-      </c>
-      <c r="P46">
-        <v>0.34</v>
-      </c>
-      <c r="Q46">
-        <v>15.0472983315475</v>
-      </c>
-      <c r="R46">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2808,31 +2255,19 @@
         <v>0.04</v>
       </c>
       <c r="K47">
-        <v>27.5673374081451</v>
+        <v>13.467078129957001</v>
       </c>
       <c r="L47">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
       <c r="M47">
-        <v>11.9383904118194</v>
+        <v>15.572818839551701</v>
       </c>
       <c r="N47">
-        <v>0.42</v>
-      </c>
-      <c r="O47">
-        <v>13.467078129957001</v>
-      </c>
-      <c r="P47">
-        <v>0.43</v>
-      </c>
-      <c r="Q47">
-        <v>15.572818839551701</v>
-      </c>
-      <c r="R47">
         <v>0.33</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -2862,31 +2297,19 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>10.8532061473238</v>
+        <v>7.2447948251465499</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M48">
-        <v>8.1220883534136501</v>
+        <v>6.5317761831058601</v>
       </c>
       <c r="N48">
-        <v>0.21</v>
-      </c>
-      <c r="O48">
-        <v>7.2447948251465499</v>
-      </c>
-      <c r="P48">
-        <v>0.3</v>
-      </c>
-      <c r="Q48">
-        <v>6.5317761831058601</v>
-      </c>
-      <c r="R48">
         <v>0.32</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2912,31 +2335,19 @@
         <v>0.06</v>
       </c>
       <c r="K49">
-        <v>11.1721401807362</v>
+        <v>5.3457358454748203</v>
       </c>
       <c r="L49">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
       <c r="M49">
-        <v>10.559902942068501</v>
+        <v>5.6099342585829097</v>
       </c>
       <c r="N49">
-        <v>0.15</v>
-      </c>
-      <c r="O49">
-        <v>5.3457358454748203</v>
-      </c>
-      <c r="P49">
-        <v>0.45</v>
-      </c>
-      <c r="Q49">
-        <v>5.6099342585829097</v>
-      </c>
-      <c r="R49">
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2962,31 +2373,19 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>11.6995144244502</v>
+        <v>5.7549290584116504</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="M50">
-        <v>10.409594517418601</v>
+        <v>11.0325696594427</v>
       </c>
       <c r="N50">
-        <v>0.11</v>
-      </c>
-      <c r="O50">
-        <v>5.7549290584116504</v>
-      </c>
-      <c r="P50">
-        <v>0.39</v>
-      </c>
-      <c r="Q50">
-        <v>11.0325696594427</v>
-      </c>
-      <c r="R50">
         <v>0.13</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
@@ -3014,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>17.096585691626998</v>
+        <v>16.932128436839101</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M51">
         <v>18.747782969390698</v>
@@ -3025,20 +2424,8 @@
       <c r="N51">
         <v>0.04</v>
       </c>
-      <c r="O51">
-        <v>16.932128436839101</v>
-      </c>
-      <c r="P51">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q51">
-        <v>18.747782969390698</v>
-      </c>
-      <c r="R51">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3064,31 +2451,19 @@
         <v>0.03</v>
       </c>
       <c r="K52">
-        <v>17.3463769957227</v>
+        <v>9.8928813559322109</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="M52">
-        <v>15.883072334078999</v>
+        <v>11.4541387024609</v>
       </c>
       <c r="N52">
-        <v>0.22</v>
-      </c>
-      <c r="O52">
-        <v>9.8928813559322109</v>
-      </c>
-      <c r="P52">
-        <v>0.43</v>
-      </c>
-      <c r="Q52">
-        <v>11.4541387024609</v>
-      </c>
-      <c r="R52">
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3114,31 +2489,19 @@
         <v>0.01</v>
       </c>
       <c r="K53">
-        <v>18.670799525936701</v>
+        <v>12.7874096565881</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="M53">
-        <v>11.861313297331099</v>
+        <v>10.9754374568633</v>
       </c>
       <c r="N53">
-        <v>0.26</v>
-      </c>
-      <c r="O53">
-        <v>12.7874096565881</v>
-      </c>
-      <c r="P53">
-        <v>0.27</v>
-      </c>
-      <c r="Q53">
-        <v>10.9754374568633</v>
-      </c>
-      <c r="R53">
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2">
@@ -3166,31 +2529,19 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>21.662788237782902</v>
+        <v>21.8105782655281</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M54">
-        <v>17.433203595329399</v>
+        <v>14.4451410658307</v>
       </c>
       <c r="N54">
-        <v>0.24</v>
-      </c>
-      <c r="O54">
-        <v>21.8105782655281</v>
-      </c>
-      <c r="P54">
-        <v>0.18</v>
-      </c>
-      <c r="Q54">
-        <v>14.4451410658307</v>
-      </c>
-      <c r="R54">
         <v>0.37</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3216,31 +2567,19 @@
         <v>0.08</v>
       </c>
       <c r="K55">
-        <v>24.0086750095249</v>
+        <v>14.511178507206299</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="M55">
-        <v>24.261809566118799</v>
+        <v>15.0472983315475</v>
       </c>
       <c r="N55">
-        <v>0.2</v>
-      </c>
-      <c r="O55">
-        <v>14.511178507206299</v>
-      </c>
-      <c r="P55">
-        <v>0.34</v>
-      </c>
-      <c r="Q55">
-        <v>15.0472983315475</v>
-      </c>
-      <c r="R55">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3266,50 +2605,21 @@
         <v>0.05</v>
       </c>
       <c r="K56">
-        <v>27.627141508161401</v>
+        <v>16.189252811764401</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="M56">
-        <v>27.295149725854099</v>
+        <v>33.553069673214203</v>
       </c>
       <c r="N56">
-        <v>0.21</v>
-      </c>
-      <c r="O56">
-        <v>16.189252811764401</v>
-      </c>
-      <c r="P56">
-        <v>0.32</v>
-      </c>
-      <c r="Q56">
-        <v>33.553069673214203</v>
-      </c>
-      <c r="R56">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="Q1:R1"/>
+  <mergeCells count="31">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A3:A29"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="B12:B20"/>
@@ -3323,8 +2633,23 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C42:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3349,11 +2674,11 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -4505,6 +3830,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C42:C44"/>
@@ -4518,21 +3858,6 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="A3:A29"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4542,7 +3867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FFB0E5-9432-4C51-A3E0-7BF8626A80B9}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4557,11 +3882,11 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -5713,6 +5038,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A29"/>
@@ -5728,19 +5066,6 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rate_Control_Assignment/Throughput.xlsx
+++ b/Rate_Control_Assignment/Throughput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osimo\Documents\Courses\Wirless_networking\WNGP02\Rate_Control_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4B9C1-B973-43D3-B45B-C30A03170214}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82C0BE-9740-4790-8E5D-D74AC72CE80F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" xr2:uid="{C1A6B83C-2F4C-4525-9D38-CFEBFDFAC31F}"/>
   </bookViews>
@@ -116,10 +116,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DBEFA7-5B6B-459A-9357-777A86DBD05D}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K83" sqref="A57:K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
@@ -460,26 +460,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
@@ -514,13 +514,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1024</v>
       </c>
       <c r="D3" t="s">
@@ -558,9 +558,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -596,9 +596,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -634,9 +634,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>2048</v>
       </c>
       <c r="D6" t="s">
@@ -674,9 +674,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -712,9 +712,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -750,9 +750,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>4096</v>
       </c>
       <c r="D9" t="s">
@@ -790,9 +790,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -828,9 +828,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -866,11 +866,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1024</v>
       </c>
       <c r="D12" t="s">
@@ -908,9 +908,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
         <v>3</v>
       </c>
@@ -946,9 +946,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -984,9 +984,9 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>2048</v>
       </c>
       <c r="D15" t="s">
@@ -1024,9 +1024,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>3</v>
       </c>
@@ -1062,9 +1062,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1100,9 +1100,9 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>4096</v>
       </c>
       <c r="D18" t="s">
@@ -1140,9 +1140,9 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -1178,9 +1178,9 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>4</v>
       </c>
@@ -1216,11 +1216,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1024</v>
       </c>
       <c r="D21" t="s">
@@ -1258,9 +1258,9 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>3</v>
       </c>
@@ -1296,9 +1296,9 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -1334,9 +1334,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
         <v>2048</v>
       </c>
       <c r="D24" t="s">
@@ -1374,9 +1374,9 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
         <v>3</v>
       </c>
@@ -1412,9 +1412,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" t="s">
         <v>4</v>
       </c>
@@ -1450,9 +1450,9 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
         <v>4096</v>
       </c>
       <c r="D27" t="s">
@@ -1490,9 +1490,9 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
         <v>3</v>
       </c>
@@ -1528,9 +1528,9 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -1566,13 +1566,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>1024</v>
       </c>
       <c r="D30" t="s">
@@ -1610,9 +1610,9 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
         <v>3</v>
       </c>
@@ -1648,9 +1648,9 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
         <v>4</v>
       </c>
@@ -1686,9 +1686,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
         <v>2048</v>
       </c>
       <c r="D33" t="s">
@@ -1726,9 +1726,9 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" t="s">
         <v>3</v>
       </c>
@@ -1764,9 +1764,9 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" t="s">
         <v>4</v>
       </c>
@@ -1802,9 +1802,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
         <v>4096</v>
       </c>
       <c r="D36" t="s">
@@ -1842,9 +1842,9 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" t="s">
         <v>3</v>
       </c>
@@ -1880,9 +1880,9 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" t="s">
         <v>4</v>
       </c>
@@ -1918,11 +1918,11 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>1024</v>
       </c>
       <c r="D39" t="s">
@@ -1960,9 +1960,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" t="s">
         <v>3</v>
       </c>
@@ -1998,9 +1998,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" t="s">
         <v>4</v>
       </c>
@@ -2036,9 +2036,9 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
         <v>2048</v>
       </c>
       <c r="D42" t="s">
@@ -2076,9 +2076,9 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" t="s">
         <v>3</v>
       </c>
@@ -2114,9 +2114,9 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
         <v>4</v>
       </c>
@@ -2152,9 +2152,9 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
         <v>4096</v>
       </c>
       <c r="D45" t="s">
@@ -2192,9 +2192,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
         <v>3</v>
       </c>
@@ -2230,9 +2230,9 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
         <v>4</v>
       </c>
@@ -2268,11 +2268,11 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>1024</v>
       </c>
       <c r="D48" t="s">
@@ -2310,9 +2310,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" t="s">
         <v>3</v>
       </c>
@@ -2348,9 +2348,9 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" t="s">
         <v>4</v>
       </c>
@@ -2386,9 +2386,9 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
         <v>2048</v>
       </c>
       <c r="D51" t="s">
@@ -2426,9 +2426,9 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" t="s">
         <v>3</v>
       </c>
@@ -2464,9 +2464,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="D53" t="s">
         <v>4</v>
       </c>
@@ -2502,9 +2502,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
         <v>4096</v>
       </c>
       <c r="D54" t="s">
@@ -2542,9 +2542,9 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" t="s">
         <v>3</v>
       </c>
@@ -2580,9 +2580,9 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
       <c r="D56" t="s">
         <v>4</v>
       </c>
@@ -2617,8 +2617,293 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="57">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A3:A29"/>
     <mergeCell ref="B3:B11"/>
@@ -2633,23 +2918,34 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A57:A83"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="A84:A110"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B102:B110"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2673,14 +2969,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
@@ -2697,13 +2993,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1024</v>
       </c>
       <c r="D3" t="s">
@@ -2723,9 +3019,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2743,9 +3039,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -2763,9 +3059,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>2048</v>
       </c>
       <c r="D6" t="s">
@@ -2785,9 +3081,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -2805,9 +3101,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -2825,9 +3121,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>4096</v>
       </c>
       <c r="D9" t="s">
@@ -2847,9 +3143,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -2867,9 +3163,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -2887,11 +3183,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1024</v>
       </c>
       <c r="D12" t="s">
@@ -2911,9 +3207,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
         <v>3</v>
       </c>
@@ -2931,9 +3227,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -2951,9 +3247,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>2048</v>
       </c>
       <c r="D15" t="s">
@@ -2973,9 +3269,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>3</v>
       </c>
@@ -2993,9 +3289,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -3013,9 +3309,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>4096</v>
       </c>
       <c r="D18" t="s">
@@ -3035,9 +3331,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -3055,9 +3351,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>4</v>
       </c>
@@ -3075,11 +3371,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1024</v>
       </c>
       <c r="D21" t="s">
@@ -3099,9 +3395,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>3</v>
       </c>
@@ -3119,9 +3415,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -3139,9 +3435,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
         <v>2048</v>
       </c>
       <c r="D24" t="s">
@@ -3161,9 +3457,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
         <v>3</v>
       </c>
@@ -3181,9 +3477,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" t="s">
         <v>4</v>
       </c>
@@ -3201,9 +3497,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
         <v>4096</v>
       </c>
       <c r="D27" t="s">
@@ -3223,9 +3519,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
         <v>3</v>
       </c>
@@ -3243,9 +3539,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -3263,13 +3559,13 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>1024</v>
       </c>
       <c r="D30" t="s">
@@ -3289,9 +3585,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
         <v>3</v>
       </c>
@@ -3309,9 +3605,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
         <v>4</v>
       </c>
@@ -3329,9 +3625,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
         <v>2048</v>
       </c>
       <c r="D33" t="s">
@@ -3351,9 +3647,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" t="s">
         <v>3</v>
       </c>
@@ -3371,9 +3667,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" t="s">
         <v>4</v>
       </c>
@@ -3391,9 +3687,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
         <v>4096</v>
       </c>
       <c r="D36" t="s">
@@ -3413,9 +3709,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" t="s">
         <v>3</v>
       </c>
@@ -3433,9 +3729,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" t="s">
         <v>4</v>
       </c>
@@ -3453,11 +3749,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>1024</v>
       </c>
       <c r="D39" t="s">
@@ -3477,9 +3773,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" t="s">
         <v>3</v>
       </c>
@@ -3497,9 +3793,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" t="s">
         <v>4</v>
       </c>
@@ -3517,9 +3813,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
         <v>2048</v>
       </c>
       <c r="D42" t="s">
@@ -3539,9 +3835,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" t="s">
         <v>3</v>
       </c>
@@ -3559,9 +3855,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
         <v>4</v>
       </c>
@@ -3579,9 +3875,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
         <v>4096</v>
       </c>
       <c r="D45" t="s">
@@ -3601,9 +3897,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
         <v>3</v>
       </c>
@@ -3621,9 +3917,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
         <v>4</v>
       </c>
@@ -3641,11 +3937,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>1024</v>
       </c>
       <c r="D48" t="s">
@@ -3665,9 +3961,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" t="s">
         <v>3</v>
       </c>
@@ -3685,9 +3981,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" t="s">
         <v>4</v>
       </c>
@@ -3705,9 +4001,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
         <v>2048</v>
       </c>
       <c r="D51" t="s">
@@ -3727,9 +4023,9 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" t="s">
         <v>3</v>
       </c>
@@ -3747,9 +4043,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="D53" t="s">
         <v>4</v>
       </c>
@@ -3767,9 +4063,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
         <v>4096</v>
       </c>
       <c r="D54" t="s">
@@ -3789,9 +4085,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" t="s">
         <v>3</v>
       </c>
@@ -3809,9 +4105,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
       <c r="D56" t="s">
         <v>4</v>
       </c>
@@ -3830,21 +4126,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:A29"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C42:C44"/>
@@ -3858,6 +4139,21 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3881,14 +4177,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
@@ -3905,13 +4201,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1024</v>
       </c>
       <c r="D3" t="s">
@@ -3931,9 +4227,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3951,9 +4247,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -3971,9 +4267,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>2048</v>
       </c>
       <c r="D6" t="s">
@@ -3993,9 +4289,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -4013,9 +4309,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -4033,9 +4329,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>4096</v>
       </c>
       <c r="D9" t="s">
@@ -4055,9 +4351,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -4075,9 +4371,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -4095,11 +4391,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1024</v>
       </c>
       <c r="D12" t="s">
@@ -4119,9 +4415,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
         <v>3</v>
       </c>
@@ -4139,9 +4435,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -4159,9 +4455,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>2048</v>
       </c>
       <c r="D15" t="s">
@@ -4181,9 +4477,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>3</v>
       </c>
@@ -4201,9 +4497,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -4221,9 +4517,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>4096</v>
       </c>
       <c r="D18" t="s">
@@ -4243,9 +4539,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -4263,9 +4559,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>4</v>
       </c>
@@ -4283,11 +4579,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1024</v>
       </c>
       <c r="D21" t="s">
@@ -4307,9 +4603,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>3</v>
       </c>
@@ -4327,9 +4623,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -4347,9 +4643,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
         <v>2048</v>
       </c>
       <c r="D24" t="s">
@@ -4369,9 +4665,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
         <v>3</v>
       </c>
@@ -4389,9 +4685,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" t="s">
         <v>4</v>
       </c>
@@ -4409,9 +4705,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
         <v>4096</v>
       </c>
       <c r="D27" t="s">
@@ -4431,9 +4727,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
         <v>3</v>
       </c>
@@ -4451,9 +4747,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -4471,13 +4767,13 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>1024</v>
       </c>
       <c r="D30" t="s">
@@ -4497,9 +4793,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
         <v>3</v>
       </c>
@@ -4517,9 +4813,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
         <v>4</v>
       </c>
@@ -4537,9 +4833,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
         <v>2048</v>
       </c>
       <c r="D33" t="s">
@@ -4559,9 +4855,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" t="s">
         <v>3</v>
       </c>
@@ -4579,9 +4875,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" t="s">
         <v>4</v>
       </c>
@@ -4599,9 +4895,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
         <v>4096</v>
       </c>
       <c r="D36" t="s">
@@ -4621,9 +4917,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" t="s">
         <v>3</v>
       </c>
@@ -4641,9 +4937,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" t="s">
         <v>4</v>
       </c>
@@ -4661,11 +4957,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>1024</v>
       </c>
       <c r="D39" t="s">
@@ -4685,9 +4981,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" t="s">
         <v>3</v>
       </c>
@@ -4705,9 +5001,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" t="s">
         <v>4</v>
       </c>
@@ -4725,9 +5021,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
         <v>2048</v>
       </c>
       <c r="D42" t="s">
@@ -4747,9 +5043,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" t="s">
         <v>3</v>
       </c>
@@ -4767,9 +5063,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
         <v>4</v>
       </c>
@@ -4787,9 +5083,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
         <v>4096</v>
       </c>
       <c r="D45" t="s">
@@ -4809,9 +5105,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
         <v>3</v>
       </c>
@@ -4829,9 +5125,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
         <v>4</v>
       </c>
@@ -4849,11 +5145,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>1024</v>
       </c>
       <c r="D48" t="s">
@@ -4873,9 +5169,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" t="s">
         <v>3</v>
       </c>
@@ -4893,9 +5189,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" t="s">
         <v>4</v>
       </c>
@@ -4913,9 +5209,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
         <v>2048</v>
       </c>
       <c r="D51" t="s">
@@ -4935,9 +5231,9 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" t="s">
         <v>3</v>
       </c>
@@ -4955,9 +5251,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="D53" t="s">
         <v>4</v>
       </c>
@@ -4975,9 +5271,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
         <v>4096</v>
       </c>
       <c r="D54" t="s">
@@ -4997,9 +5293,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" t="s">
         <v>3</v>
       </c>
@@ -5017,9 +5313,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
       <c r="D56" t="s">
         <v>4</v>
       </c>
@@ -5038,19 +5334,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A29"/>
@@ -5066,6 +5349,19 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
